--- a/Portfolio_20231124 - Copy.xlsx
+++ b/Portfolio_20231124 - Copy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibf_pmp3\Documents\Managers 23_24\Xuanzhe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibf_pmp3\Documents\Managers 23_24\Xuanzhe\20231124\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5153A1EF-3673-4E6B-A4B2-3455AE90DC8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFECE6D-7954-411F-BD38-460DF7979C96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" tabRatio="837" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" tabRatio="837" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="15" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="532">
   <si>
     <t>Asset Class</t>
   </si>
@@ -2321,7 +2321,7 @@
     <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="397">
+  <cellXfs count="398">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3315,6 +3315,9 @@
     <xf numFmtId="165" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="40% - Accent2" xfId="4" builtinId="35"/>
@@ -3450,1549 +3453,1549 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|14961114632968004436</stp>
         <tr r="C35" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|10262520061638895132</stp>
         <tr r="I7" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|12134297494341899294</stp>
         <tr r="Y7" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|10023381377726016806</stp>
         <tr r="I4" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|14560468550169911649</stp>
         <tr r="I27" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|13947519691835141080</stp>
         <tr r="S7" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|16116934142481516069</stp>
         <tr r="AJ11" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|15693475503428961387</stp>
         <tr r="C4" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|14184535627869706003</stp>
         <tr r="Y2" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|15010593503983366858</stp>
         <tr r="AL3" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|10574987038737145677</stp>
+        <tr r="X23" s="23"/>
+        <tr r="X24" s="23"/>
         <tr r="X25" s="23"/>
-        <tr r="X24" s="23"/>
-        <tr r="X23" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|15294539785383761061</stp>
         <tr r="S3" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|11570349481175435418</stp>
         <tr r="X21" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|17417020704949044558</stp>
         <tr r="AL16" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4183266974</v>
+        <v>#N/A Requesting Data...1483427892</v>
         <stp/>
         <stp>BDH|11325773397731855544</stp>
         <tr r="C2" s="43"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|17122124394927839074</stp>
         <tr r="I35" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|10684849418118026923</stp>
         <tr r="M4" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|17569677018169590133</stp>
         <tr r="C5" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|11928053159824565824</stp>
         <tr r="S19" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|17632265285593335604</stp>
         <tr r="S20" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4131856224</v>
+        <v>#N/A Requesting Data...1981315514</v>
         <stp/>
         <stp>BDH|17697365131119071699</stp>
         <tr r="R2" s="41"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|16112788416441751802</stp>
         <tr r="AK10" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|11316539219225429971</stp>
         <tr r="M22" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|13644928927078680971</stp>
         <tr r="I16" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|14134313481293135542</stp>
         <tr r="Y6" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|14031903453057655616</stp>
         <tr r="C28" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|12325771976928070353</stp>
         <tr r="AM4" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|10928719803449194027</stp>
         <tr r="AJ5" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|11181787977958489729</stp>
         <tr r="C3" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|13898246287300798742</stp>
         <tr r="M3" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|16911336546699028677</stp>
+        <tr r="AM12" s="23"/>
         <tr r="AM13" s="23"/>
-        <tr r="AM12" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|15928966263206430229</stp>
         <tr r="M3" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|11256173765939914144</stp>
         <tr r="B15" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|17696966774325959211</stp>
         <tr r="X4" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|16426863604891032191</stp>
         <tr r="C30" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|11146723062338185621</stp>
         <tr r="S17" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|15873308514939029153</stp>
         <tr r="AL15" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|17186305615073883972</stp>
         <tr r="J17" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|10234886125292118723</stp>
         <tr r="C8" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|13235865040045491507</stp>
         <tr r="B18" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|10196863120844493101</stp>
         <tr r="AJ19" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|18247426544570739708</stp>
         <tr r="AL4" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|16781857257465097101</stp>
         <tr r="M6" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|15224213502460012841</stp>
         <tr r="C32" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|13341041747468365079</stp>
         <tr r="I15" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|15036397347806548801</stp>
         <tr r="X11" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|11725737269705717951</stp>
         <tr r="AL11" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|13693943563594827533</stp>
         <tr r="B21" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|15903597288054317118</stp>
         <tr r="C21" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|10670964890118361526</stp>
         <tr r="C22" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|18036346576324226523</stp>
         <tr r="B2" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|18416579714343074206</stp>
         <tr r="I34" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4176827708</v>
+        <v>#N/A Requesting Data...2314574638</v>
         <stp/>
         <stp>BDH|17613748098246620241</stp>
         <tr r="J2" s="41"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|17082992825917412916</stp>
         <tr r="X15" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|15642656151966931251</stp>
         <tr r="I13" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|16493688265034794009</stp>
         <tr r="C26" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|12254839202759748140</stp>
         <tr r="AL3" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|14652868731688575576</stp>
         <tr r="B17" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|12333951617660707847</stp>
         <tr r="C7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4200678364</v>
+        <v>#N/A Requesting Data...513165630</v>
         <stp/>
         <stp>BDH|11358569618326246129</stp>
         <tr r="A2" s="43"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4267656358</v>
+        <v>#N/A Requesting Data...4213493436</v>
         <stp/>
         <stp>BDH|11320706155636963718</stp>
         <tr r="A2" s="42"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|14675241791769825503</stp>
         <tr r="I10" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|13585155503219419890</stp>
         <tr r="AJ15" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|16944786411641123202</stp>
         <tr r="C16" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|12059162096938090135</stp>
         <tr r="I17" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|17943083472810838396</stp>
         <tr r="I20" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|11705422002334101225</stp>
+        <tr r="J23" s="23"/>
+        <tr r="J24" s="23"/>
         <tr r="J25" s="23"/>
-        <tr r="J24" s="23"/>
-        <tr r="J23" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|10429291574616803075</stp>
         <tr r="M9" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4105866721</v>
+        <v>#N/A Requesting Data...607517569</v>
         <stp/>
         <stp>BDH|13291389010724336608</stp>
         <tr r="C2" s="42"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|15679033501370088584</stp>
         <tr r="AM10" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|16809310746926640774</stp>
         <tr r="B7" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|14659274051481976285</stp>
         <tr r="I24" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|17146268792454850896</stp>
         <tr r="M11" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|14482763524825428462</stp>
         <tr r="X5" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|14164952166299327397</stp>
         <tr r="B23" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|14152591019902839324</stp>
         <tr r="I14" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|10755429149808847999</stp>
+        <tr r="S12" s="23"/>
+        <tr r="S13" s="23"/>
         <tr r="S14" s="23"/>
-        <tr r="S13" s="23"/>
-        <tr r="S12" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|12666793100581077522</stp>
         <tr r="AK15" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|12068027225474124586</stp>
         <tr r="AL10" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|12586341660083209536</stp>
         <tr r="X10" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|13526828353188422737</stp>
         <tr r="X20" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|17303031768357326792</stp>
         <tr r="J18" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|16427387557605906473</stp>
         <tr r="AK17" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|11095217234565680467</stp>
         <tr r="M15" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|14130078267505734610</stp>
         <tr r="X7" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4159028202</v>
+        <v>#N/A Requesting Data...3885414463</v>
         <stp/>
         <stp>BDH|15725758679426414254</stp>
         <tr r="O2" s="42"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|17002171288941054954</stp>
+        <tr r="AK12" s="23"/>
         <tr r="AK13" s="23"/>
-        <tr r="AK12" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|10971048132656186342</stp>
         <tr r="M5" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|11858761408433278398</stp>
         <tr r="AK7" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|17156090249207906256</stp>
         <tr r="I26" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|15496460766295180465</stp>
         <tr r="C14" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|16028825183275095566</stp>
         <tr r="AK2" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4251953175</v>
+        <v>#N/A Requesting Data...2871648716</v>
         <stp/>
         <stp>BDH|17288106953281590427</stp>
         <tr r="K2" s="42"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|14460888612989500345</stp>
         <tr r="AM3" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|12403851424746830931</stp>
         <tr r="I6" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|10475689608923097260</stp>
         <tr r="S22" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4276450547</v>
+        <v>#N/A Requesting Data...2050637979</v>
         <stp/>
         <stp>BDH|13847984408758609532</stp>
         <tr r="L2" s="41"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4196407851</v>
+        <v>#N/A Requesting Data...3499409779</v>
         <stp/>
         <stp>BDH|18322949808586056007</stp>
         <tr r="D2" s="41"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|11038007062703358082</stp>
         <tr r="AM11" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|13039794824055571772</stp>
         <tr r="I8" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|13541416802201964203</stp>
         <tr r="I31" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|12929365060125773693</stp>
         <tr r="I22" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|14571436704760714469</stp>
         <tr r="I33" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|13538606854720069467</stp>
         <tr r="M7" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|15720283106273765084</stp>
         <tr r="M14" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4248411802</v>
+        <v>#N/A Requesting Data...3670534725</v>
         <stp/>
         <stp>BDH|17976304934471144251</stp>
         <tr r="O2" s="41"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4161369258</v>
+        <v>#N/A Requesting Data...3728972616</v>
         <stp/>
         <stp>BDH|14095363864392986704</stp>
         <tr r="E2" s="41"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4240022980</v>
+        <v>#N/A Requesting Data...4031220019</v>
         <stp/>
         <stp>BDH|13097947731408857571</stp>
         <tr r="S2" s="42"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|17857046966936676214</stp>
         <tr r="C18" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|15369573210045765122</stp>
         <tr r="I3" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|15087651850946790523</stp>
         <tr r="I18" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|12215212083759292408</stp>
         <tr r="AL16" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|15803697554256555565</stp>
         <tr r="B3" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4264567449</v>
+        <v>#N/A Requesting Data...2598292335</v>
         <stp/>
         <stp>BDH|12695856139929307590</stp>
         <tr r="G2" s="41"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4275458542</v>
+        <v>#N/A Requesting Data...635197019</v>
         <stp/>
         <stp>BDH|14731368955580401729</stp>
         <tr r="S2" s="41"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4171138933</v>
+        <v>#N/A Requesting Data...2753129377</v>
         <stp/>
         <stp>BDH|15658462674624761773</stp>
         <tr r="I2" s="42"/>
       </tp>
     </main>
     <main first="bofaddin.rtdserver">
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|3932833410537706170</stp>
         <tr r="I9" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4208947084</v>
+        <v>#N/A Requesting Data...2225559903</v>
         <stp/>
         <stp>BDH|1951893229235300264</stp>
         <tr r="Q2" s="42"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|9303561570080173767</stp>
         <tr r="AL5" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|9234325000185230332</stp>
         <tr r="C24" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|1228991366414778729</stp>
         <tr r="C6" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4287896474</v>
+        <v>#N/A Requesting Data...3657199840</v>
         <stp/>
         <stp>BDH|9366042907755045192</stp>
         <tr r="C2" s="41"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|9064014884388944428</stp>
         <tr r="C17" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|1577213379038935144</stp>
         <tr r="X3" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|5824340431331816940</stp>
         <tr r="S10" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|4308716993144270323</stp>
         <tr r="B16" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|4042570187295102104</stp>
         <tr r="J22" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|6013605140930681928</stp>
         <tr r="AM5" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|5893553125419419575</stp>
         <tr r="C23" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|9829705635995703635</stp>
         <tr r="C27" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|1930133090791511668</stp>
+        <tr r="AJ12" s="23"/>
         <tr r="AJ13" s="23"/>
-        <tr r="AJ12" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|3600755198957791423</stp>
         <tr r="C12" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|9881075535250410430</stp>
         <tr r="C11" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|3028153464983471972</stp>
         <tr r="C9" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4283765857</v>
+        <v>#N/A Requesting Data...1893753307</v>
         <stp/>
         <stp>BDH|4575880492742405984</stp>
         <tr r="U2" s="41"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|9372264810113700726</stp>
         <tr r="Y3" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|3283988564837872513</stp>
         <tr r="C25" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4269676928</v>
+        <v>#N/A Requesting Data...2149299335</v>
         <stp/>
         <stp>BDH|4461482099134347311</stp>
         <tr r="H2" s="42"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|2158009914089622475</stp>
         <tr r="AK16" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|9080047601032528542</stp>
         <tr r="M23" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|2458335876571332899</stp>
         <tr r="AK3" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4289722189</v>
+        <v>#N/A Requesting Data...2426521142</v>
         <stp/>
         <stp>BDH|9712605651244030148</stp>
         <tr r="D2" s="43"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|8495165717813040460</stp>
         <tr r="AJ21" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|7467107440899088448</stp>
         <tr r="C10" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|1226152690706411050</stp>
         <tr r="AL11" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|2130889054024945360</stp>
         <tr r="I21" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|2927293155024131960</stp>
         <tr r="M7" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|9383281948241306645</stp>
         <tr r="M25" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|5584100136147758995</stp>
+        <tr r="AL12" s="23"/>
         <tr r="AL13" s="23"/>
-        <tr r="AL12" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|6665899614890097665</stp>
         <tr r="B22" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|6560099609608238754</stp>
         <tr r="M6" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4262165571</v>
+        <v>#N/A Requesting Data...1130865340</v>
         <stp/>
         <stp>BDH|6103152656708321336</stp>
         <tr r="G2" s="43"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|1143418862238242263</stp>
         <tr r="AM16" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|7536027870481078816</stp>
         <tr r="M8" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|6306886325096520009</stp>
         <tr r="I25" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|6488914245957400695</stp>
         <tr r="C29" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4269793150</v>
+        <v>#N/A Requesting Data...4265414229</v>
         <stp/>
         <stp>BDH|1369995069351923588</stp>
         <tr r="N2" s="41"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|6403771474819378541</stp>
         <tr r="I12" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|3564682182794626391</stp>
         <tr r="M27" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|9049066006157770463</stp>
         <tr r="J19" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4288405898</v>
+        <v>#N/A Requesting Data...2404120186</v>
         <stp/>
         <stp>BDH|1801645276783313981</stp>
         <tr r="F2" s="42"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|5644558592914624709</stp>
         <tr r="X12" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4294630137</v>
+        <v>#N/A Requesting Data...2766118999</v>
         <stp/>
         <stp>BDH|9444265771316303071</stp>
         <tr r="N2" s="42"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|8924190189463030916</stp>
         <tr r="B20" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|6987467320142537953</stp>
         <tr r="M26" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|9624404748343915185</stp>
         <tr r="C20" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|9695481288766413814</stp>
         <tr r="M20" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|8668820735211210931</stp>
         <tr r="I23" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4291687915</v>
+        <v>#N/A Requesting Data...856661136</v>
         <stp/>
         <stp>BDH|1396423986385425336</stp>
         <tr r="A2" s="41"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|8275357227362794010</stp>
         <tr r="AM15" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|7803320853398961244</stp>
         <tr r="AK6" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4294595530</v>
+        <v>#N/A Requesting Data...3861588286</v>
         <stp/>
         <stp>BDH|7570831447817474711</stp>
         <tr r="L2" s="42"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|9245962970709551544</stp>
         <tr r="S21" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...928338291</v>
+        <v>#N/A Requesting Data...2366472471</v>
         <stp/>
         <stp>BDH|2247665103797154834</stp>
         <tr r="R2" s="42"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2836156706</v>
+        <v>#N/A Requesting Data...1085976496</v>
         <stp/>
         <stp>BDH|6409202932525070651</stp>
         <tr r="D2" s="42"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...256553760</v>
+        <v>#N/A Requesting Data...757117782</v>
         <stp/>
         <stp>BDH|6490657902181164532</stp>
         <tr r="M2" s="41"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|3611145711446265175</stp>
         <tr r="B19" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|3205587303860434284</stp>
         <tr r="AJ18" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|2144931281470514730</stp>
         <tr r="M12" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|7914615560347757555</stp>
         <tr r="M29" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|3667777724136878562</stp>
         <tr r="AL7" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|8904797648666563842</stp>
         <tr r="S16" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|7662380925481720222</stp>
         <tr r="AM7" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|6620705429636761078</stp>
         <tr r="I29" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|3289654604481788180</stp>
         <tr r="AL5" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|3276010522175082112</stp>
+        <tr r="I19" s="4"/>
         <tr r="I36" s="4"/>
-        <tr r="I19" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|7126419820140662469</stp>
         <tr r="AJ17" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|6844616879312380045</stp>
         <tr r="AL10" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|8518343883545063350</stp>
         <tr r="B4" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|6954157234251017332</stp>
         <tr r="I28" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|6727755913036133081</stp>
         <tr r="M18" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|4368510047916882548</stp>
         <tr r="Y5" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|6806320595328100211</stp>
         <tr r="M5" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2549305780</v>
+        <v>#N/A Requesting Data...1891335182</v>
         <stp/>
         <stp>BDH|4990819253479102659</stp>
         <tr r="P2" s="42"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...539283295</v>
+        <v>#N/A Requesting Data...2214411068</v>
         <stp/>
         <stp>BDH|2055717773950906460</stp>
         <tr r="I2" s="43"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|2549252440040329204</stp>
         <tr r="AK4" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|2692999117825898965</stp>
         <tr r="B11" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|7444215956964993308</stp>
         <tr r="S15" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|5846298235793568096</stp>
         <tr r="M10" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|4534637956665870503</stp>
         <tr r="M17" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|3371787870987631342</stp>
         <tr r="AL4" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|4007522067772294294</stp>
         <tr r="AL7" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3314829576</v>
+        <v>#N/A Requesting Data...2775283280</v>
         <stp/>
         <stp>BDH|3660920190040773443</stp>
         <tr r="E2" s="43"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|9831814725894893012</stp>
         <tr r="AK11" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|4897117645397105677</stp>
         <tr r="AJ20" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|8817410318015988830</stp>
         <tr r="X22" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|9959926338366463585</stp>
         <tr r="B5" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|3843183538205407419</stp>
         <tr r="S11" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|1222747366758152838</stp>
         <tr r="AJ3" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|4740640074090397568</stp>
         <tr r="AK5" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|2177977472355035973</stp>
         <tr r="AJ4" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|3487274233337650572</stp>
         <tr r="X16" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1450914148</v>
+        <v>#N/A Requesting Data...1402042972</v>
         <stp/>
         <stp>BDH|1420263123975067409</stp>
         <tr r="P2" s="41"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3380286862</v>
+        <v>#N/A Requesting Data...3706720420</v>
         <stp/>
         <stp>BDH|2698053422290242023</stp>
         <tr r="T2" s="42"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|8073917058216699280</stp>
         <tr r="M13" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1761938453</v>
+        <v>#N/A Requesting Data...3904188018</v>
         <stp/>
         <stp>BDH|2480902889426598428</stp>
         <tr r="I2" s="41"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|9962127790213316333</stp>
         <tr r="M22" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|5526986605588121518</stp>
+        <tr r="AL12" s="23"/>
         <tr r="AL13" s="23"/>
-        <tr r="AL12" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|7388262448250300073</stp>
         <tr r="C33" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|7588826982683430584</stp>
         <tr r="I11" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|5447197685859603410</stp>
         <tr r="AJ10" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|3668461447197730526</stp>
         <tr r="I32" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|5379688077331662489</stp>
         <tr r="M16" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|6650512216391595278</stp>
         <tr r="B12" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3420890041</v>
+        <v>#N/A Requesting Data...3434198509</v>
         <stp/>
         <stp>BDH|5978405511177919625</stp>
         <tr r="H2" s="43"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|5721072653245295416</stp>
         <tr r="M21" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...541006123</v>
+        <v>#N/A Requesting Data...3169350489</v>
         <stp/>
         <stp>BDH|5114172496224516847</stp>
         <tr r="J2" s="42"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|6717152185718194634</stp>
         <tr r="B10" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2806397284</v>
+        <v>#N/A Requesting Data...3954175809</v>
         <stp/>
         <stp>BDH|7905014419737860327</stp>
         <tr r="T2" s="41"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|1503994489973474197</stp>
         <tr r="M24" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3486577310</v>
+        <v>#N/A Requesting Data...3324011144</v>
         <stp/>
         <stp>BDH|5320937399660838797</stp>
         <tr r="F2" s="43"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3105854117</v>
+        <v>#N/A Requesting Data...3718361954</v>
         <stp/>
         <stp>BDH|5655765826315878723</stp>
         <tr r="Q2" s="41"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...869082874</v>
+        <v>#N/A Requesting Data...693410273</v>
         <stp/>
         <stp>BDH|2108306105154227767</stp>
         <tr r="E2" s="42"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|5979705572994268267</stp>
         <tr r="Y10" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...729195629</v>
+        <v>#N/A Requesting Data...1585522767</v>
         <stp/>
         <stp>BDH|5426027398856275900</stp>
         <tr r="G2" s="42"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|1539366488779668004</stp>
         <tr r="C13" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|3055163264054549311</stp>
         <tr r="C15" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|6332046457463448321</stp>
         <tr r="Y4" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|7360387276313822315</stp>
         <tr r="M28" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2683864241</v>
+        <v>#N/A Requesting Data...3742862825</v>
         <stp/>
         <stp>BDH|4198798133261767282</stp>
         <tr r="H2" s="41"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|22217401951802283</stp>
         <tr r="X17" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|736667213722539036</stp>
         <tr r="I30" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2004845590</v>
+        <v>#N/A Requesting Data...3073848726</v>
         <stp/>
         <stp>BDH|492284701121336696</stp>
         <tr r="M2" s="42"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|269061122321969264</stp>
+        <tr r="M19" s="4"/>
         <tr r="M4" s="4"/>
-        <tr r="M19" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|332983320473165936</stp>
         <tr r="C31" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|273733921110297408</stp>
         <tr r="B6" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|773540785499871775</stp>
         <tr r="AJ22" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...300696183</v>
+        <v>#N/A Requesting Data...2216433186</v>
         <stp/>
         <stp>BDH|794838778885212825</stp>
         <tr r="K2" s="41"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|562448282519727727</stp>
         <tr r="M30" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|204402083980653245</stp>
         <tr r="C34" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|566851002001110067</stp>
+        <tr r="S23" s="23"/>
+        <tr r="S24" s="23"/>
         <tr r="S25" s="23"/>
-        <tr r="S24" s="23"/>
-        <tr r="S23" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3749730412</v>
+        <v>#N/A Requesting Data...3887596925</v>
         <stp/>
         <stp>BDH|859244633470291936</stp>
         <tr r="F2" s="41"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|847794488235034202</stp>
         <tr r="X19" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|776371565848775618</stp>
         <tr r="AL15" s="23"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDP|979567768960104910</stp>
         <tr r="M2" s="23"/>
@@ -5301,7 +5304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -10787,7 +10790,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:T147"/>
+  <dimension ref="A1:T148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C126" activePane="bottomRight" state="frozen"/>
@@ -10867,82 +10870,82 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="295">
-        <f>_xll.BDH(B$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=146")</f>
+        <f>_xll.BDH(B$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=147")</f>
         <v>45051</v>
       </c>
       <c r="B2">
         <v>1.1019000000000001</v>
       </c>
       <c r="C2">
-        <f>_xll.BDH(C$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(C$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>5.4561999999999999</v>
       </c>
       <c r="D2">
-        <f>_xll.BDH(D$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(D$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>4982.6499999999996</v>
       </c>
       <c r="E2">
-        <f>_xll.BDH(E$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(E$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>371.77</v>
       </c>
       <c r="F2">
-        <f>_xll.BDH(F$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(F$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>4.5721999999999996</v>
       </c>
       <c r="G2">
-        <f>_xll.BDH(G$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(G$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>19.578800000000001</v>
       </c>
       <c r="H2">
-        <f>_xll.BDH(H$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(H$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>21.5183</v>
       </c>
       <c r="I2">
-        <f>_xll.BDH(I$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(I$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>20.307099999999998</v>
       </c>
       <c r="J2">
-        <f>_xll.BDH(J$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(J$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>19.810300000000002</v>
       </c>
       <c r="K2">
-        <f>_xll.BDH(K$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(K$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>1.63304</v>
       </c>
       <c r="L2">
-        <f>_xll.BDH(L$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(L$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>1.47373</v>
       </c>
       <c r="M2">
-        <f>_xll.BDH(M$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(M$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>0.98136000000000001</v>
       </c>
       <c r="N2">
-        <f>_xll.BDH(N$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(N$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>7.4505999999999997</v>
       </c>
       <c r="O2">
-        <f>_xll.BDH(O$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(O$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>0.87251999999999996</v>
       </c>
       <c r="P2">
-        <f>_xll.BDH(P$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(P$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>148.36000000000001</v>
       </c>
       <c r="Q2">
-        <f>_xll.BDH(Q$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(Q$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>11.6465</v>
       </c>
       <c r="R2">
-        <f>_xll.BDH(R$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(R$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>1.7512000000000001</v>
       </c>
       <c r="S2">
-        <f>_xll.BDH(S$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(S$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>11.2014</v>
       </c>
       <c r="T2">
-        <f>_xll.BDH(T$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(T$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>23.393999999999998</v>
       </c>
     </row>
@@ -19934,6 +19937,68 @@
       </c>
       <c r="T147">
         <v>24.39</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20">
+      <c r="A148" s="397">
+        <v>45257</v>
+      </c>
+      <c r="B148" s="278">
+        <v>1.0939000000000001</v>
+      </c>
+      <c r="C148" s="278">
+        <v>5.3653000000000004</v>
+      </c>
+      <c r="D148" s="278">
+        <v>4419.2700000000004</v>
+      </c>
+      <c r="E148" s="278">
+        <v>380.23</v>
+      </c>
+      <c r="F148" s="278">
+        <v>4.3669000000000002</v>
+      </c>
+      <c r="G148" s="278">
+        <v>18.7254</v>
+      </c>
+      <c r="H148" s="278">
+        <v>31.6038</v>
+      </c>
+      <c r="I148" s="278">
+        <v>20.5639</v>
+      </c>
+      <c r="J148" s="278">
+        <v>25.797000000000001</v>
+      </c>
+      <c r="K148" s="278">
+        <v>1.6621699999999999</v>
+      </c>
+      <c r="L148" s="278">
+        <v>1.4910300000000001</v>
+      </c>
+      <c r="M148" s="278">
+        <v>0.96514999999999995</v>
+      </c>
+      <c r="N148" s="278">
+        <v>7.4553000000000003</v>
+      </c>
+      <c r="O148" s="278">
+        <v>0.86821000000000004</v>
+      </c>
+      <c r="P148" s="278">
+        <v>163.63</v>
+      </c>
+      <c r="Q148" s="278">
+        <v>11.713699999999999</v>
+      </c>
+      <c r="R148" s="278">
+        <v>1.7996000000000001</v>
+      </c>
+      <c r="S148" s="278">
+        <v>11.446999999999999</v>
+      </c>
+      <c r="T148" s="278">
+        <v>24.398</v>
       </c>
     </row>
   </sheetData>
@@ -20400,7 +20465,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
@@ -20453,38 +20518,38 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="295">
-        <f>_xll.BDH(B$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=146")</f>
+        <f>_xll.BDH(B$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=147")</f>
         <v>45051</v>
       </c>
       <c r="B2">
         <v>3.44</v>
       </c>
       <c r="C2">
-        <f>_xll.BDH(C$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(C$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>119.35</v>
       </c>
       <c r="D2">
-        <f>_xll.BDH(D$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(D$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>39.39</v>
       </c>
       <c r="E2">
-        <f>_xll.BDH(E$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(E$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>8858.86</v>
       </c>
       <c r="F2">
-        <f>_xll.BDH(F$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(F$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>869.25109999999995</v>
       </c>
       <c r="G2">
-        <f>_xll.BDH(G$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(G$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>788.68</v>
       </c>
       <c r="H2">
-        <f>_xll.BDH(H$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(H$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>391.47489999999999</v>
       </c>
       <c r="I2">
-        <f>_xll.BDH(I$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(I$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>228.1858</v>
       </c>
     </row>
@@ -24690,6 +24755,35 @@
         <v>396.36180000000002</v>
       </c>
       <c r="I147">
+        <v>231.6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="397">
+        <v>45257</v>
+      </c>
+      <c r="B148" s="99">
+        <v>4.468</v>
+      </c>
+      <c r="C148" s="99">
+        <v>127.52</v>
+      </c>
+      <c r="D148" s="99">
+        <v>39.54</v>
+      </c>
+      <c r="E148" s="99">
+        <v>9855.84</v>
+      </c>
+      <c r="F148" s="99">
+        <v>834.81679999999994</v>
+      </c>
+      <c r="G148" s="99">
+        <v>800.62</v>
+      </c>
+      <c r="H148" s="99">
+        <v>396.36180000000002</v>
+      </c>
+      <c r="I148" s="99">
         <v>231.6</v>
       </c>
     </row>
@@ -24703,12 +24797,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -28417,8 +28511,8 @@
       <c r="E31" s="38"/>
       <c r="F31" s="38"/>
       <c r="G31" s="122">
-        <f>AI31/$C$38</f>
-        <v>0.19583291765939007</v>
+        <f>U31/$C$38</f>
+        <v>0.36102157036370747</v>
       </c>
       <c r="H31" s="81"/>
       <c r="I31" s="38" t="s">
@@ -28498,7 +28592,7 @@
       <c r="E32" s="38"/>
       <c r="F32" s="38"/>
       <c r="G32" s="122">
-        <f>AI32/$C$38</f>
+        <f t="shared" ref="G32:G34" si="41">U32/$C$38</f>
         <v>2.3906884779023158E-2</v>
       </c>
       <c r="H32" s="81"/>
@@ -28576,7 +28670,7 @@
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
       <c r="G33" s="122">
-        <f>AI33/$C$38</f>
+        <f t="shared" si="41"/>
         <v>4.1209313173989979E-4</v>
       </c>
       <c r="H33" s="81"/>
@@ -28653,7 +28747,7 @@
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
       <c r="G34" s="122">
-        <f>AI34/$C$38</f>
+        <f t="shared" si="41"/>
         <v>1.0728225547315126E-3</v>
       </c>
       <c r="H34" s="81"/>
@@ -28731,10 +28825,7 @@
       </c>
     </row>
     <row r="38" spans="1:45">
-      <c r="A38" s="155">
-        <f ca="1">TODAY()</f>
-        <v>45256</v>
-      </c>
+      <c r="A38" s="155"/>
       <c r="B38" t="s">
         <v>300</v>
       </c>
@@ -40675,7 +40766,7 @@
       </c>
       <c r="C1" s="4">
         <f ca="1">TODAY()</f>
-        <v>45256</v>
+        <v>45257</v>
       </c>
     </row>
     <row r="2" spans="2:13">
@@ -41444,7 +41535,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:U147"/>
+  <dimension ref="A1:U148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
@@ -41526,22 +41617,22 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="295">
-        <f>_xll.BDH(B$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=146")</f>
+        <f>_xll.BDH(B$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=147")</f>
         <v>45051</v>
       </c>
       <c r="B2" t="s">
         <v>261</v>
       </c>
       <c r="C2">
-        <f>_xll.BDH(C$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(C$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>87.896000000000001</v>
       </c>
       <c r="D2">
-        <f>_xll.BDH(D$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(D$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>79.179000000000002</v>
       </c>
       <c r="E2">
-        <f>_xll.BDH(E$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(E$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>78.2</v>
       </c>
       <c r="F2" t="str">
@@ -41549,35 +41640,35 @@
         <v>#N/A N/A</v>
       </c>
       <c r="G2">
-        <f>_xll.BDH(G$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(G$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>17.798999999999999</v>
       </c>
       <c r="H2">
-        <f>_xll.BDH(H$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(H$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>10.817</v>
       </c>
       <c r="I2">
-        <f>_xll.BDH(I$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(I$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>72.652000000000001</v>
       </c>
       <c r="J2">
-        <f>_xll.BDH(J$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(J$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>89.813999999999993</v>
       </c>
       <c r="K2">
-        <f>_xll.BDH(K$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(K$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>34.784999999999997</v>
       </c>
       <c r="L2">
-        <f>_xll.BDH(L$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(L$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>59.167999999999999</v>
       </c>
       <c r="M2">
-        <f>_xll.BDH(M$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(M$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>31.632000000000001</v>
       </c>
       <c r="N2">
-        <f>_xll.BDH(N$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(N$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>206.67</v>
       </c>
       <c r="O2" t="str">
@@ -41585,27 +41676,27 @@
         <v>#N/A Invalid Security</v>
       </c>
       <c r="P2">
-        <f>_xll.BDH(P$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(P$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>72.95</v>
       </c>
       <c r="Q2">
-        <f>_xll.BDH(Q$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(Q$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>144.304</v>
       </c>
       <c r="R2">
-        <f>_xll.BDH(R$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(R$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>32.380000000000003</v>
       </c>
       <c r="S2">
-        <f>_xll.BDH(S$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(S$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>21.9</v>
       </c>
       <c r="T2">
-        <f>_xll.BDH(T$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(T$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>31.15</v>
       </c>
       <c r="U2" s="99">
-        <f>_xll.BDH(U$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=146")</f>
+        <f>_xll.BDH(U$1,"PX_LAST","2023-05-05","","Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=147")</f>
         <v>29.952000000000002</v>
       </c>
     </row>
@@ -50451,6 +50542,65 @@
         <v>50</v>
       </c>
       <c r="U147" s="99">
+        <v>34.806899999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21">
+      <c r="A148" s="397">
+        <v>45257</v>
+      </c>
+      <c r="B148" s="99" t="s">
+        <v>261</v>
+      </c>
+      <c r="C148" s="99">
+        <v>82.641999999999996</v>
+      </c>
+      <c r="D148" s="99">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="E148" s="99">
+        <v>73.596999999999994</v>
+      </c>
+      <c r="G148" s="99">
+        <v>19.433</v>
+      </c>
+      <c r="H148" s="99">
+        <v>11.064</v>
+      </c>
+      <c r="I148" s="99">
+        <v>74.831999999999994</v>
+      </c>
+      <c r="J148" s="99">
+        <v>83.738</v>
+      </c>
+      <c r="K148" s="99">
+        <v>38.445</v>
+      </c>
+      <c r="L148" s="99">
+        <v>62.683</v>
+      </c>
+      <c r="M148" s="99">
+        <v>35.305999999999997</v>
+      </c>
+      <c r="N148" s="99">
+        <v>190.16</v>
+      </c>
+      <c r="P148" s="99">
+        <v>74.459999999999994</v>
+      </c>
+      <c r="Q148" s="99">
+        <v>132.67400000000001</v>
+      </c>
+      <c r="R148" s="99">
+        <v>39.965000000000003</v>
+      </c>
+      <c r="S148" s="99">
+        <v>24.535</v>
+      </c>
+      <c r="T148" s="99">
+        <v>50</v>
+      </c>
+      <c r="U148" s="99">
         <v>34.806899999999999</v>
       </c>
     </row>

--- a/Portfolio_20231124 - Copy.xlsx
+++ b/Portfolio_20231124 - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibf_pmp3\Documents\Managers 23_24\Xuanzhe\20231124\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFECE6D-7954-411F-BD38-460DF7979C96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F4EDA4-B277-445F-BFA6-995588988BF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" tabRatio="837" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" tabRatio="837" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="15" r:id="rId1"/>
@@ -3279,6 +3279,9 @@
     <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3314,9 +3317,6 @@
     </xf>
     <xf numFmtId="165" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3517,9 +3517,9 @@
         <v>#N/A</v>
         <stp/>
         <stp>BDP|10574987038737145677</stp>
+        <tr r="X25" s="23"/>
+        <tr r="X24" s="23"/>
         <tr r="X23" s="23"/>
-        <tr r="X24" s="23"/>
-        <tr r="X25" s="23"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
@@ -3540,7 +3540,7 @@
         <tr r="AL16" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1483427892</v>
+        <v>#N/A Requesting Data...3586713529</v>
         <stp/>
         <stp>BDH|11325773397731855544</stp>
         <tr r="C2" s="43"/>
@@ -3576,7 +3576,7 @@
         <tr r="S20" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1981315514</v>
+        <v>#N/A Requesting Data...2598979154</v>
         <stp/>
         <stp>BDH|17697365131119071699</stp>
         <tr r="R2" s="41"/>
@@ -3639,8 +3639,8 @@
         <v>#N/A</v>
         <stp/>
         <stp>BDP|16911336546699028677</stp>
+        <tr r="AM13" s="23"/>
         <tr r="AM12" s="23"/>
-        <tr r="AM13" s="23"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
@@ -3769,7 +3769,7 @@
         <tr r="I34" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2314574638</v>
+        <v>#N/A Requesting Data...2449071771</v>
         <stp/>
         <stp>BDH|17613748098246620241</stp>
         <tr r="J2" s="41"/>
@@ -3811,13 +3811,13 @@
         <tr r="C7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...513165630</v>
+        <v>#N/A Requesting Data...4059713816</v>
         <stp/>
         <stp>BDH|11358569618326246129</stp>
         <tr r="A2" s="43"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4213493436</v>
+        <v>#N/A Requesting Data...3330920923</v>
         <stp/>
         <stp>BDH|11320706155636963718</stp>
         <tr r="A2" s="42"/>
@@ -3856,9 +3856,9 @@
         <v>#N/A</v>
         <stp/>
         <stp>BDP|11705422002334101225</stp>
+        <tr r="J25" s="23"/>
+        <tr r="J24" s="23"/>
         <tr r="J23" s="23"/>
-        <tr r="J24" s="23"/>
-        <tr r="J25" s="23"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
@@ -3867,7 +3867,7 @@
         <tr r="M9" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...607517569</v>
+        <v>#N/A Requesting Data...2526325515</v>
         <stp/>
         <stp>BDH|13291389010724336608</stp>
         <tr r="C2" s="42"/>
@@ -3918,9 +3918,9 @@
         <v>#N/A</v>
         <stp/>
         <stp>BDP|10755429149808847999</stp>
+        <tr r="S14" s="23"/>
+        <tr r="S13" s="23"/>
         <tr r="S12" s="23"/>
-        <tr r="S13" s="23"/>
-        <tr r="S14" s="23"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
@@ -3971,7 +3971,7 @@
         <tr r="X7" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3885414463</v>
+        <v>#N/A Requesting Data...3235602105</v>
         <stp/>
         <stp>BDH|15725758679426414254</stp>
         <tr r="O2" s="42"/>
@@ -3980,8 +3980,8 @@
         <v>#N/A</v>
         <stp/>
         <stp>BDP|17002171288941054954</stp>
+        <tr r="AK13" s="23"/>
         <tr r="AK12" s="23"/>
-        <tr r="AK13" s="23"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
@@ -4014,7 +4014,7 @@
         <tr r="AK2" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2871648716</v>
+        <v>#N/A Requesting Data...3071266181</v>
         <stp/>
         <stp>BDH|17288106953281590427</stp>
         <tr r="K2" s="42"/>
@@ -4038,13 +4038,13 @@
         <tr r="S22" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2050637979</v>
+        <v>#N/A Requesting Data...2905848483</v>
         <stp/>
         <stp>BDH|13847984408758609532</stp>
         <tr r="L2" s="41"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3499409779</v>
+        <v>#N/A Requesting Data...3369306289</v>
         <stp/>
         <stp>BDH|18322949808586056007</stp>
         <tr r="D2" s="41"/>
@@ -4092,19 +4092,19 @@
         <tr r="M14" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3670534725</v>
+        <v>#N/A Requesting Data...2851703439</v>
         <stp/>
         <stp>BDH|17976304934471144251</stp>
         <tr r="O2" s="41"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3728972616</v>
+        <v>#N/A Requesting Data...3536659134</v>
         <stp/>
         <stp>BDH|14095363864392986704</stp>
         <tr r="E2" s="41"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4031220019</v>
+        <v>#N/A Requesting Data...3238058774</v>
         <stp/>
         <stp>BDH|13097947731408857571</stp>
         <tr r="S2" s="42"/>
@@ -4140,19 +4140,19 @@
         <tr r="B3" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2598292335</v>
+        <v>#N/A Requesting Data...3959487196</v>
         <stp/>
         <stp>BDH|12695856139929307590</stp>
         <tr r="G2" s="41"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...635197019</v>
+        <v>#N/A Requesting Data...3938179009</v>
         <stp/>
         <stp>BDH|14731368955580401729</stp>
         <tr r="S2" s="41"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2753129377</v>
+        <v>#N/A Requesting Data...3848253457</v>
         <stp/>
         <stp>BDH|15658462674624761773</stp>
         <tr r="I2" s="42"/>
@@ -4166,7 +4166,7 @@
         <tr r="I9" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2225559903</v>
+        <v>#N/A Requesting Data...3930540696</v>
         <stp/>
         <stp>BDH|1951893229235300264</stp>
         <tr r="Q2" s="42"/>
@@ -4190,7 +4190,7 @@
         <tr r="C6" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3657199840</v>
+        <v>#N/A Requesting Data...2676059610</v>
         <stp/>
         <stp>BDH|9366042907755045192</stp>
         <tr r="C2" s="41"/>
@@ -4247,8 +4247,8 @@
         <v>#N/A</v>
         <stp/>
         <stp>BDP|1930133090791511668</stp>
+        <tr r="AJ13" s="23"/>
         <tr r="AJ12" s="23"/>
-        <tr r="AJ13" s="23"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
@@ -4269,7 +4269,7 @@
         <tr r="C9" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1893753307</v>
+        <v>#N/A Requesting Data...3569855882</v>
         <stp/>
         <stp>BDH|4575880492742405984</stp>
         <tr r="U2" s="41"/>
@@ -4287,7 +4287,7 @@
         <tr r="C25" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2149299335</v>
+        <v>#N/A Requesting Data...3962775478</v>
         <stp/>
         <stp>BDH|4461482099134347311</stp>
         <tr r="H2" s="42"/>
@@ -4311,7 +4311,7 @@
         <tr r="AK3" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2426521142</v>
+        <v>#N/A Requesting Data...3279035649</v>
         <stp/>
         <stp>BDH|9712605651244030148</stp>
         <tr r="D2" s="43"/>
@@ -4356,8 +4356,8 @@
         <v>#N/A</v>
         <stp/>
         <stp>BDP|5584100136147758995</stp>
+        <tr r="AL13" s="23"/>
         <tr r="AL12" s="23"/>
-        <tr r="AL13" s="23"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
@@ -4372,7 +4372,7 @@
         <tr r="M6" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1130865340</v>
+        <v>#N/A Requesting Data...3561623232</v>
         <stp/>
         <stp>BDH|6103152656708321336</stp>
         <tr r="G2" s="43"/>
@@ -4402,7 +4402,7 @@
         <tr r="C29" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4265414229</v>
+        <v>#N/A Requesting Data...3738636263</v>
         <stp/>
         <stp>BDH|1369995069351923588</stp>
         <tr r="N2" s="41"/>
@@ -4426,7 +4426,7 @@
         <tr r="J19" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2404120186</v>
+        <v>#N/A Requesting Data...3612599336</v>
         <stp/>
         <stp>BDH|1801645276783313981</stp>
         <tr r="F2" s="42"/>
@@ -4438,7 +4438,7 @@
         <tr r="X12" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2766118999</v>
+        <v>#N/A Requesting Data...3050939091</v>
         <stp/>
         <stp>BDH|9444265771316303071</stp>
         <tr r="N2" s="42"/>
@@ -4474,7 +4474,7 @@
         <tr r="I23" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...856661136</v>
+        <v>#N/A Requesting Data...3148282750</v>
         <stp/>
         <stp>BDH|1396423986385425336</stp>
         <tr r="A2" s="41"/>
@@ -4492,7 +4492,7 @@
         <tr r="AK6" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3861588286</v>
+        <v>#N/A Requesting Data...3651819089</v>
         <stp/>
         <stp>BDH|7570831447817474711</stp>
         <tr r="L2" s="42"/>
@@ -4504,19 +4504,19 @@
         <tr r="S21" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2366472471</v>
+        <v>#N/A Requesting Data...4007646038</v>
         <stp/>
         <stp>BDH|2247665103797154834</stp>
         <tr r="R2" s="42"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1085976496</v>
+        <v>#N/A Requesting Data...3648158924</v>
         <stp/>
         <stp>BDH|6409202932525070651</stp>
         <tr r="D2" s="42"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...757117782</v>
+        <v>#N/A Requesting Data...3783124570</v>
         <stp/>
         <stp>BDH|6490657902181164532</stp>
         <tr r="M2" s="41"/>
@@ -4579,8 +4579,8 @@
         <v>#N/A</v>
         <stp/>
         <stp>BDP|3276010522175082112</stp>
+        <tr r="I36" s="4"/>
         <tr r="I19" s="4"/>
-        <tr r="I36" s="4"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
@@ -4625,13 +4625,13 @@
         <tr r="M5" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1891335182</v>
+        <v>#N/A Requesting Data...3399100406</v>
         <stp/>
         <stp>BDH|4990819253479102659</stp>
         <tr r="P2" s="42"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2214411068</v>
+        <v>#N/A Requesting Data...3629486175</v>
         <stp/>
         <stp>BDH|2055717773950906460</stp>
         <tr r="I2" s="43"/>
@@ -4679,7 +4679,7 @@
         <tr r="AL7" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2775283280</v>
+        <v>#N/A Requesting Data...3182961543</v>
         <stp/>
         <stp>BDH|3660920190040773443</stp>
         <tr r="E2" s="43"/>
@@ -4739,13 +4739,13 @@
         <tr r="X16" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1402042972</v>
+        <v>#N/A Requesting Data...3252436530</v>
         <stp/>
         <stp>BDH|1420263123975067409</stp>
         <tr r="P2" s="41"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3706720420</v>
+        <v>#N/A Requesting Data...3370421416</v>
         <stp/>
         <stp>BDH|2698053422290242023</stp>
         <tr r="T2" s="42"/>
@@ -4757,7 +4757,7 @@
         <tr r="M13" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3904188018</v>
+        <v>#N/A Requesting Data...2960319251</v>
         <stp/>
         <stp>BDH|2480902889426598428</stp>
         <tr r="I2" s="41"/>
@@ -4772,8 +4772,8 @@
         <v>#N/A</v>
         <stp/>
         <stp>BDP|5526986605588121518</stp>
+        <tr r="AL13" s="23"/>
         <tr r="AL12" s="23"/>
-        <tr r="AL13" s="23"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
@@ -4812,7 +4812,7 @@
         <tr r="B12" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3434198509</v>
+        <v>#N/A Requesting Data...3721879892</v>
         <stp/>
         <stp>BDH|5978405511177919625</stp>
         <tr r="H2" s="43"/>
@@ -4824,7 +4824,7 @@
         <tr r="M21" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3169350489</v>
+        <v>#N/A Requesting Data...3366068608</v>
         <stp/>
         <stp>BDH|5114172496224516847</stp>
         <tr r="J2" s="42"/>
@@ -4836,7 +4836,7 @@
         <tr r="B10" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3954175809</v>
+        <v>#N/A Requesting Data...4248729796</v>
         <stp/>
         <stp>BDH|7905014419737860327</stp>
         <tr r="T2" s="41"/>
@@ -4848,19 +4848,19 @@
         <tr r="M24" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3324011144</v>
+        <v>#N/A Requesting Data...3824568532</v>
         <stp/>
         <stp>BDH|5320937399660838797</stp>
         <tr r="F2" s="43"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3718361954</v>
+        <v>#N/A Requesting Data...3527739746</v>
         <stp/>
         <stp>BDH|5655765826315878723</stp>
         <tr r="Q2" s="41"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...693410273</v>
+        <v>#N/A Requesting Data...3074548889</v>
         <stp/>
         <stp>BDH|2108306105154227767</stp>
         <tr r="E2" s="42"/>
@@ -4872,7 +4872,7 @@
         <tr r="Y10" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1585522767</v>
+        <v>#N/A Requesting Data...3706039637</v>
         <stp/>
         <stp>BDH|5426027398856275900</stp>
         <tr r="G2" s="42"/>
@@ -4902,7 +4902,7 @@
         <tr r="M28" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3742862825</v>
+        <v>#N/A Requesting Data...3921193988</v>
         <stp/>
         <stp>BDH|4198798133261767282</stp>
         <tr r="H2" s="41"/>
@@ -4920,7 +4920,7 @@
         <tr r="I30" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3073848726</v>
+        <v>#N/A Requesting Data...4122136160</v>
         <stp/>
         <stp>BDH|492284701121336696</stp>
         <tr r="M2" s="42"/>
@@ -4929,8 +4929,8 @@
         <v>#N/A</v>
         <stp/>
         <stp>BDP|269061122321969264</stp>
+        <tr r="M4" s="4"/>
         <tr r="M19" s="4"/>
-        <tr r="M4" s="4"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
@@ -4951,7 +4951,7 @@
         <tr r="AJ22" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2216433186</v>
+        <v>#N/A Requesting Data...3332167049</v>
         <stp/>
         <stp>BDH|794838778885212825</stp>
         <tr r="K2" s="41"/>
@@ -4972,12 +4972,12 @@
         <v>#N/A</v>
         <stp/>
         <stp>BDP|566851002001110067</stp>
+        <tr r="S25" s="23"/>
+        <tr r="S24" s="23"/>
         <tr r="S23" s="23"/>
-        <tr r="S24" s="23"/>
-        <tr r="S25" s="23"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3887596925</v>
+        <v>#N/A Requesting Data...3942718354</v>
         <stp/>
         <stp>BDH|859244633470291936</stp>
         <tr r="F2" s="41"/>
@@ -5943,118 +5943,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="385" t="s">
+      <c r="A1" s="386" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="386"/>
-      <c r="C1" s="386"/>
-      <c r="D1" s="386"/>
-      <c r="E1" s="386"/>
-      <c r="F1" s="386"/>
-      <c r="G1" s="386"/>
-      <c r="H1" s="386"/>
-      <c r="I1" s="386"/>
-      <c r="J1" s="386"/>
-      <c r="K1" s="386"/>
-      <c r="L1" s="386"/>
-      <c r="M1" s="386"/>
-      <c r="N1" s="386"/>
-      <c r="O1" s="386"/>
+      <c r="B1" s="387"/>
+      <c r="C1" s="387"/>
+      <c r="D1" s="387"/>
+      <c r="E1" s="387"/>
+      <c r="F1" s="387"/>
+      <c r="G1" s="387"/>
+      <c r="H1" s="387"/>
+      <c r="I1" s="387"/>
+      <c r="J1" s="387"/>
+      <c r="K1" s="387"/>
+      <c r="L1" s="387"/>
+      <c r="M1" s="387"/>
+      <c r="N1" s="387"/>
+      <c r="O1" s="387"/>
     </row>
     <row r="2" spans="1:28">
-      <c r="A2" s="386"/>
-      <c r="B2" s="386"/>
-      <c r="C2" s="386"/>
-      <c r="D2" s="386"/>
-      <c r="E2" s="386"/>
-      <c r="F2" s="386"/>
-      <c r="G2" s="386"/>
-      <c r="H2" s="386"/>
-      <c r="I2" s="386"/>
-      <c r="J2" s="386"/>
-      <c r="K2" s="386"/>
-      <c r="L2" s="386"/>
-      <c r="M2" s="386"/>
-      <c r="N2" s="386"/>
-      <c r="O2" s="386"/>
+      <c r="A2" s="387"/>
+      <c r="B2" s="387"/>
+      <c r="C2" s="387"/>
+      <c r="D2" s="387"/>
+      <c r="E2" s="387"/>
+      <c r="F2" s="387"/>
+      <c r="G2" s="387"/>
+      <c r="H2" s="387"/>
+      <c r="I2" s="387"/>
+      <c r="J2" s="387"/>
+      <c r="K2" s="387"/>
+      <c r="L2" s="387"/>
+      <c r="M2" s="387"/>
+      <c r="N2" s="387"/>
+      <c r="O2" s="387"/>
     </row>
     <row r="3" spans="1:28" s="7" customFormat="1">
-      <c r="A3" s="387" t="s">
+      <c r="A3" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="387" t="s">
+      <c r="B3" s="388" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="387" t="s">
+      <c r="C3" s="388" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="387" t="s">
+      <c r="D3" s="388" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="387" t="s">
+      <c r="E3" s="388" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="387" t="s">
+      <c r="F3" s="388" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="387" t="s">
+      <c r="G3" s="388" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="388" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="389" t="s">
+      <c r="I3" s="390" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="395" t="s">
+      <c r="J3" s="396" t="s">
         <v>191</v>
       </c>
-      <c r="K3" s="391" t="s">
+      <c r="K3" s="392" t="s">
         <v>325</v>
       </c>
-      <c r="L3" s="395" t="s">
+      <c r="L3" s="396" t="s">
         <v>113</v>
       </c>
-      <c r="M3" s="391" t="s">
+      <c r="M3" s="392" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="393" t="s">
+      <c r="N3" s="394" t="s">
         <v>118</v>
       </c>
-      <c r="O3" s="393"/>
-      <c r="P3" s="393"/>
-      <c r="Q3" s="393"/>
-      <c r="R3" s="393"/>
-      <c r="S3" s="393"/>
-      <c r="T3" s="393"/>
-      <c r="U3" s="393"/>
-      <c r="V3" s="393"/>
-      <c r="W3" s="393"/>
+      <c r="O3" s="394"/>
+      <c r="P3" s="394"/>
+      <c r="Q3" s="394"/>
+      <c r="R3" s="394"/>
+      <c r="S3" s="394"/>
+      <c r="T3" s="394"/>
+      <c r="U3" s="394"/>
+      <c r="V3" s="394"/>
+      <c r="W3" s="394"/>
     </row>
     <row r="4" spans="1:28" s="7" customFormat="1">
-      <c r="A4" s="388"/>
-      <c r="B4" s="388"/>
-      <c r="C4" s="388"/>
-      <c r="D4" s="388"/>
-      <c r="E4" s="388"/>
-      <c r="F4" s="388"/>
-      <c r="G4" s="388"/>
-      <c r="H4" s="388"/>
-      <c r="I4" s="390"/>
-      <c r="J4" s="396"/>
-      <c r="K4" s="392"/>
-      <c r="L4" s="396"/>
-      <c r="M4" s="392"/>
-      <c r="N4" s="394"/>
-      <c r="O4" s="394"/>
-      <c r="P4" s="394"/>
-      <c r="Q4" s="394"/>
-      <c r="R4" s="394"/>
-      <c r="S4" s="394"/>
-      <c r="T4" s="394"/>
-      <c r="U4" s="394"/>
-      <c r="V4" s="394"/>
-      <c r="W4" s="394"/>
+      <c r="A4" s="389"/>
+      <c r="B4" s="389"/>
+      <c r="C4" s="389"/>
+      <c r="D4" s="389"/>
+      <c r="E4" s="389"/>
+      <c r="F4" s="389"/>
+      <c r="G4" s="389"/>
+      <c r="H4" s="389"/>
+      <c r="I4" s="391"/>
+      <c r="J4" s="397"/>
+      <c r="K4" s="393"/>
+      <c r="L4" s="397"/>
+      <c r="M4" s="393"/>
+      <c r="N4" s="395"/>
+      <c r="O4" s="395"/>
+      <c r="P4" s="395"/>
+      <c r="Q4" s="395"/>
+      <c r="R4" s="395"/>
+      <c r="S4" s="395"/>
+      <c r="T4" s="395"/>
+      <c r="U4" s="395"/>
+      <c r="V4" s="395"/>
+      <c r="W4" s="395"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
@@ -19940,11 +19940,11 @@
       </c>
     </row>
     <row r="148" spans="1:20">
-      <c r="A148" s="397">
+      <c r="A148" s="385">
         <v>45257</v>
       </c>
       <c r="B148" s="278">
-        <v>1.0939000000000001</v>
+        <v>1.0936999999999999</v>
       </c>
       <c r="C148" s="278">
         <v>5.3653000000000004</v>
@@ -19953,52 +19953,52 @@
         <v>4419.2700000000004</v>
       </c>
       <c r="E148" s="278">
-        <v>380.23</v>
+        <v>380.8</v>
       </c>
       <c r="F148" s="278">
-        <v>4.3669000000000002</v>
+        <v>4.3685999999999998</v>
       </c>
       <c r="G148" s="278">
-        <v>18.7254</v>
+        <v>18.713699999999999</v>
       </c>
       <c r="H148" s="278">
-        <v>31.6038</v>
+        <v>31.622599999999998</v>
       </c>
       <c r="I148" s="278">
-        <v>20.5639</v>
+        <v>20.5763</v>
       </c>
       <c r="J148" s="278">
-        <v>25.797000000000001</v>
+        <v>25.7864</v>
       </c>
       <c r="K148" s="278">
-        <v>1.6621699999999999</v>
+        <v>1.6606099999999999</v>
       </c>
       <c r="L148" s="278">
-        <v>1.4910300000000001</v>
+        <v>1.4909399999999999</v>
       </c>
       <c r="M148" s="278">
-        <v>0.96514999999999995</v>
+        <v>0.96472000000000002</v>
       </c>
       <c r="N148" s="278">
-        <v>7.4553000000000003</v>
+        <v>7.4545000000000003</v>
       </c>
       <c r="O148" s="278">
-        <v>0.86821000000000004</v>
+        <v>0.86802000000000001</v>
       </c>
       <c r="P148" s="278">
-        <v>163.63</v>
+        <v>163.38</v>
       </c>
       <c r="Q148" s="278">
-        <v>11.713699999999999</v>
+        <v>11.7166</v>
       </c>
       <c r="R148" s="278">
-        <v>1.7996000000000001</v>
+        <v>1.7975000000000001</v>
       </c>
       <c r="S148" s="278">
         <v>11.446999999999999</v>
       </c>
       <c r="T148" s="278">
-        <v>24.398</v>
+        <v>24.411000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -24759,11 +24759,11 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="397">
+      <c r="A148" s="385">
         <v>45257</v>
       </c>
       <c r="B148" s="99">
-        <v>4.468</v>
+        <v>4.5010000000000003</v>
       </c>
       <c r="C148" s="99">
         <v>127.52</v>
@@ -24797,12 +24797,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
-      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -25010,7 +25010,7 @@
       </c>
       <c r="G2" s="108">
         <f t="shared" ref="G2:G7" si="2">AI2/$C$38</f>
-        <v>9.3631914029030088E-4</v>
+        <v>9.3861441109443274E-4</v>
       </c>
       <c r="H2" s="125">
         <f>N2 * O2 / AS2</f>
@@ -25142,7 +25142,7 @@
       </c>
       <c r="G3" s="108">
         <f t="shared" si="2"/>
-        <v>5.833671550361709E-2</v>
+        <v>5.8479720761271961E-2</v>
       </c>
       <c r="H3" s="125">
         <f t="shared" ref="H3:H25" si="5">N3 * O3 / AS3</f>
@@ -25546,7 +25546,7 @@
       </c>
       <c r="G6" s="108">
         <f t="shared" si="2"/>
-        <v>2.3414901561363045E-2</v>
+        <v>2.3472300302478981E-2</v>
       </c>
       <c r="H6" s="125">
         <f t="shared" si="5"/>
@@ -25677,7 +25677,7 @@
       </c>
       <c r="G7" s="108">
         <f t="shared" si="2"/>
-        <v>7.9062354558865677E-2</v>
+        <v>7.9256166162533864E-2</v>
       </c>
       <c r="H7" s="125">
         <f t="shared" si="5"/>
@@ -26009,7 +26009,7 @@
       </c>
       <c r="G10" s="108">
         <f t="shared" ref="G10:G25" si="11">AI10/$C$38</f>
-        <v>9.0229913687961578E-3</v>
+        <v>9.0451101184441801E-3</v>
       </c>
       <c r="H10" s="125">
         <f t="shared" si="5"/>
@@ -26147,7 +26147,7 @@
       </c>
       <c r="G11" s="108">
         <f t="shared" si="11"/>
-        <v>3.1822819031042705E-2</v>
+        <v>3.1900828744060507E-2</v>
       </c>
       <c r="H11" s="125">
         <f t="shared" si="5"/>
@@ -26283,7 +26283,7 @@
       </c>
       <c r="G12" s="108">
         <f t="shared" si="11"/>
-        <v>6.1221463231431433E-2</v>
+        <v>6.1371540092081497E-2</v>
       </c>
       <c r="H12" s="125">
         <f t="shared" si="5"/>
@@ -26419,7 +26419,7 @@
       </c>
       <c r="G13" s="128">
         <f t="shared" si="11"/>
-        <v>2.1638620624902485E-2</v>
+        <v>2.1691665032546041E-2</v>
       </c>
       <c r="H13" s="262">
         <f t="shared" si="5"/>
@@ -26546,7 +26546,7 @@
       </c>
       <c r="G14" s="128">
         <f t="shared" si="11"/>
-        <v>3.9582842606528945E-2</v>
+        <v>3.9679875059535449E-2</v>
       </c>
       <c r="H14" s="262">
         <f t="shared" si="5"/>
@@ -26669,7 +26669,7 @@
       </c>
       <c r="G15" s="108">
         <f t="shared" si="11"/>
-        <v>6.8707924338033938E-2</v>
+        <v>6.8876353334045584E-2</v>
       </c>
       <c r="H15" s="125">
         <f t="shared" si="5"/>
@@ -26807,7 +26807,7 @@
       </c>
       <c r="G16" s="108">
         <f t="shared" si="11"/>
-        <v>4.7132465739967301E-2</v>
+        <v>4.7248005162248204E-2</v>
       </c>
       <c r="H16" s="125">
         <f t="shared" si="5"/>
@@ -26942,7 +26942,7 @@
       </c>
       <c r="G17" s="109">
         <f t="shared" si="11"/>
-        <v>2.0511325270168981E-2</v>
+        <v>2.056160625239057E-2</v>
       </c>
       <c r="H17" s="325">
         <f t="shared" si="5"/>
@@ -27185,7 +27185,7 @@
       </c>
       <c r="G19" s="109">
         <f t="shared" si="11"/>
-        <v>3.8876618450434539E-2</v>
+        <v>3.8971919682090433E-2</v>
       </c>
       <c r="H19" s="325">
         <f t="shared" si="5"/>
@@ -27310,7 +27310,7 @@
       </c>
       <c r="G20" s="109">
         <f t="shared" si="11"/>
-        <v>3.5194917357339678E-2</v>
+        <v>3.5281193353191999E-2</v>
       </c>
       <c r="H20" s="325">
         <f t="shared" si="5"/>
@@ -27434,7 +27434,7 @@
       </c>
       <c r="G21" s="109">
         <f t="shared" si="11"/>
-        <v>4.310765220983926E-2</v>
+        <v>4.3213325298526992E-2</v>
       </c>
       <c r="H21" s="325">
         <f t="shared" si="5"/>
@@ -27559,7 +27559,7 @@
       </c>
       <c r="G22" s="123">
         <f t="shared" si="11"/>
-        <v>4.8538579993563535E-2</v>
+        <v>4.8657566331382823E-2</v>
       </c>
       <c r="H22" s="324">
         <f t="shared" si="5"/>
@@ -27686,7 +27686,7 @@
       </c>
       <c r="G23" s="123">
         <f t="shared" si="11"/>
-        <v>4.7699581416044586E-2</v>
+        <v>4.7816511052407258E-2</v>
       </c>
       <c r="H23" s="324">
         <f t="shared" si="5"/>
@@ -27805,7 +27805,7 @@
       </c>
       <c r="G24" s="158">
         <f t="shared" si="11"/>
-        <v>2.4103212333018993E-2</v>
+        <v>2.4162298383034606E-2</v>
       </c>
       <c r="H24" s="262">
         <f t="shared" si="5"/>
@@ -27925,7 +27925,7 @@
       </c>
       <c r="G25" s="158">
         <f t="shared" si="11"/>
-        <v>2.3596369083025599E-2</v>
+        <v>2.3654212669372662E-2</v>
       </c>
       <c r="H25" s="262">
         <f t="shared" si="5"/>
@@ -28512,7 +28512,7 @@
       <c r="F31" s="38"/>
       <c r="G31" s="122">
         <f>U31/$C$38</f>
-        <v>0.36102157036370747</v>
+        <v>0.36190657018317152</v>
       </c>
       <c r="H31" s="81"/>
       <c r="I31" s="38" t="s">
@@ -28593,7 +28593,7 @@
       <c r="F32" s="38"/>
       <c r="G32" s="122">
         <f t="shared" ref="G32:G34" si="41">U32/$C$38</f>
-        <v>2.3906884779023158E-2</v>
+        <v>2.3965489556272531E-2</v>
       </c>
       <c r="H32" s="81"/>
       <c r="I32" s="38" t="s">
@@ -28671,7 +28671,7 @@
       <c r="F33" s="38"/>
       <c r="G33" s="122">
         <f t="shared" si="41"/>
-        <v>4.1209313173989979E-4</v>
+        <v>4.1310332718840105E-4</v>
       </c>
       <c r="H33" s="81"/>
       <c r="I33" s="38" t="s">
@@ -28748,7 +28748,7 @@
       <c r="F34" s="38"/>
       <c r="G34" s="122">
         <f t="shared" si="41"/>
-        <v>1.0728225547315126E-3</v>
+        <v>1.0754524468077613E-3</v>
       </c>
       <c r="H34" s="81"/>
       <c r="I34" s="38" t="s">
@@ -28816,8 +28816,8 @@
     <row r="35" spans="1:45" ht="15" customHeight="1"/>
     <row r="36" spans="1:45">
       <c r="U36" s="87">
-        <f>SUM(U2:U7)+SUM(U10:U12)+SUM(U31:U34)+SUM(U15:U23)</f>
-        <v>1695031.6829642737</v>
+        <f>SUM(U2:U7)+SUM(U10:U12)+SUM(U26:U34)+SUM(U15:U23)</f>
+        <v>1690886.6829642737</v>
       </c>
       <c r="AI36" s="87">
         <f>SUM(AI2:AI7) + SUM(AI10:AI12) +SUM(AI15:AI23) + SUM(AI26:AI34)</f>
@@ -28831,7 +28831,7 @@
       </c>
       <c r="C38" s="156">
         <f>U36</f>
-        <v>1695031.6829642737</v>
+        <v>1690886.6829642737</v>
       </c>
       <c r="D38" s="32"/>
       <c r="L38" s="115"/>
@@ -28948,12 +28948,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I646"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B625" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B628" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1:AK1048576"/>
+      <selection pane="bottomRight" activeCell="B646" sqref="B646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -40702,26 +40702,26 @@
         <v>45254</v>
       </c>
       <c r="B646" s="75">
-        <v>1695031.68</v>
+        <v>1690886.68</v>
       </c>
       <c r="D646" s="75">
         <v>1689168</v>
       </c>
       <c r="E646" s="75">
         <f t="shared" si="11"/>
-        <v>5863.6799999999348</v>
+        <v>1718.6799999999348</v>
       </c>
       <c r="F646" s="234">
         <f t="shared" si="12"/>
-        <v>-2.6673941625855457E-3</v>
+        <v>-5.10625338862436E-3</v>
       </c>
       <c r="G646" s="158">
         <f t="shared" si="13"/>
-        <v>7.1056841763010192E-2</v>
+        <v>6.8437698615722464E-2</v>
       </c>
       <c r="H646" s="75">
         <f t="shared" si="14"/>
-        <v>107.10568417630103</v>
+        <v>106.84376986157224</v>
       </c>
       <c r="I646" s="75">
         <f t="shared" si="15"/>
@@ -50546,7 +50546,7 @@
       </c>
     </row>
     <row r="148" spans="1:21">
-      <c r="A148" s="397">
+      <c r="A148" s="385">
         <v>45257</v>
       </c>
       <c r="B148" s="99" t="s">
